--- a/linux-kernel/block-device-IO.xlsx
+++ b/linux-kernel/block-device-IO.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nb/Downloads/backup/linux-kernel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="795" windowWidth="19440" windowHeight="15600"/>
+    <workbookView xWindow="720" yWindow="800" windowWidth="31680" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="磁盘IO" sheetId="10" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>字符设备：</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -87,12 +92,841 @@
     <t>IO调度程序</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>新请求插入时，向前合并或向后合并，或者插入到合适位置。</t>
+    <rPh sb="0" eb="1">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>qing qiu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cha ru</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xiang qian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>he bing</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xiang hou</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>he bing</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>huo zhe</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>cha ru</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>he shi</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>wei zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果有过长时间没有得到处理的请求存在，或没有合适位置插入时，直接添加在队列最后</t>
+    <rPh sb="0" eb="1">
+      <t>ru guo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>guo chang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>mei you</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de dao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>chu li</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>qing qiu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>cun zai</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>mei you</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>he sh</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>wei zhi</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>cha ru</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>zhi jie</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>tian jia</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>dui lie</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>zui hou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有一个等待队列，队列是按照磁盘物理位置顺序排列。</t>
+    <rPh sb="0" eb="1">
+      <t>zhi you</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi ge</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>deng dai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dui lie</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dui lie</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>an zhao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ci pan</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>wu li</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>wei zhi</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>shun xu</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>pai lie</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后期限IO调度程序</t>
+    <rPh sb="0" eb="1">
+      <t>zui hou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qi xian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>diao du</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cheng xu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有4个队列，读请求FIFO队列，写请求FIFO队列，排序队列，派发队列</t>
+    <rPh sb="0" eb="1">
+      <t>you</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dui lie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>du</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qing qiu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>dui lie</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>xie</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>qing qiu</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>dui lie</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>pai xu</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>dui lie</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>pai fa</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>dui lie</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排队队列与linux电梯原理一样，读请求队列的请求超时时间500ms，写请求中的超时时间是5s，每选择请求到派发队列时，如果有超时的，那么先派发超时的请求。</t>
+    <rPh sb="0" eb="1">
+      <t>pai dui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dui lie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>dian ti</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yuan li</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>yi yang</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>du qing qiu</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>dui lie</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>de</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>qing qiu</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>chao shi</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>xie</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>qing qiu</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>de</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>chao shi</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>mei ci</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>xuan ze</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>qing qiu</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>pai fa</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>dui lie</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ru guo</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>you</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>chao shi</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>de</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>na me</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>pai fa</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>chao shi</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>de</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>qing qiu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为在用户层写动作一般为缓存式，不会影响用户时间，而读必须要同步满足用户读取数据，所以要快，所以超时时间对于写是5s，读500ms</t>
+    <rPh sb="0" eb="1">
+      <t>yin wei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yong hu ceng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xie</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dong zuo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yi ban</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>huan cun</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>bu hui</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ying xiang</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>er</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>du</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>bi xu</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>tong bu</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>man zu</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>du qu</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>shu ju</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>suo yi</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>kuai</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>suo yi</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>chao shi</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>dui yu</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>xie</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>du</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低吞吐量，换取无饥饿请求</t>
+    <rPh sb="0" eb="1">
+      <t>jiang di</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tun tu liang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>huan qu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ji' e</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>qing qiu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保证了全局吞吐量，但可能产生请求饥饿</t>
+    <rPh sb="0" eb="1">
+      <t>bao zheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>le</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>quan ju</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tun tu liang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ke neng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>chan sheng</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>qing qiu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ji' e</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测IO是以最后期限为基础，在派发一个超时任务后，等待几毫秒，如果用户提交了附近位置的IO处理请求，那么就不用继续寻址了。</t>
+    <rPh sb="0" eb="1">
+      <t>yu ce</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zui hou qi x</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ji chu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>pai fa</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>yi ge</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>chao shi</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ren wu</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>deng dai</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>hao miao</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ru guo</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ti jiao</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>le</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>fu jin</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>wei zhi</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>de</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>chu li</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>qing qiu</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>na me</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>jiu</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>bu yong</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ji xu</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>xun zhi</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>le</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个进程都有一个linux电梯队列，系统轮转所有进程的队列，从每个队列中拿出若干个请求执行。保证进程级公平享有IO带宽。</t>
+    <rPh sb="0" eb="1">
+      <t>mei ge</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jin cheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dou you</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yi ge</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>dian ti</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>dui lie</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>xi tong</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>lun zhuan</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>suo you</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>jin cheng</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>de</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>dui lie</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>cong</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>mei ge</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>dui lie</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>na chu</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ruo gan ge</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>qing qiu</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>zhi xing</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>bao zheng</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>gong ping</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>xinag you</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>dai kuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空操作的IO调度程序</t>
+    <rPh sb="0" eb="1">
+      <t>kong cao zuo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>diao du</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cheng xu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交新请求时，除了与现有可以合并的合并，其他都不做，基本属于FIFO。应用于真正随机寻址的设备，比如内存卡，固态硬盘等。</t>
+    <rPh sb="0" eb="1">
+      <t>ti jiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qing qiu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>chu le</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xian you</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ke yi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>he bing</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>he bing</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>dou</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>bu zuo</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ji ben</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>shu yu</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ying yong yu</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>zhen zheng</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>sui ji</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>xun zhi</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>de</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>she bei</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>bi ru</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>nei cun ka</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>gu tai</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ying pan</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测IO调度程序（缺省）</t>
+    <rPh sb="0" eb="1">
+      <t>yu ce</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>diao du</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>cheng xu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>que sheng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全公正排队的IO调度程序（缺省）</t>
+    <rPh sb="0" eb="1">
+      <t>wan quan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gong zheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pai dui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>diao du</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>cheng xu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>que sheng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux电梯算法（最基本的，后来已经被后面几个取代了）：</t>
+    <rPh sb="5" eb="6">
+      <t>dian ti</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>suan fa</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zui jin ben</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ji ben</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>hou lai</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>yi jing</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>hou mian</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ji ge</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>qu dai</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>le</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1074,8 +1908,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2667000" y="3524250"/>
-          <a:ext cx="1847850" cy="952500"/>
+          <a:off x="2547257" y="3796393"/>
+          <a:ext cx="1758043" cy="1031875"/>
           <a:chOff x="3495675" y="3276600"/>
           <a:chExt cx="1847850" cy="952500"/>
         </a:xfrm>
@@ -1518,8 +2352,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="485775" y="6686550"/>
-          <a:ext cx="8629649" cy="4714876"/>
+          <a:off x="465818" y="7208157"/>
+          <a:ext cx="8220527" cy="5089073"/>
           <a:chOff x="838200" y="4857750"/>
           <a:chExt cx="8629649" cy="4714876"/>
         </a:xfrm>
@@ -6602,6 +7436,505 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>172357</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="25" name="组 24"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1124857" y="19920856"/>
+          <a:ext cx="3837214" cy="787400"/>
+          <a:chOff x="1124857" y="19766642"/>
+          <a:chExt cx="3837214" cy="787400"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="13" name="直线箭头连接符 12"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="1124857" y="19975286"/>
+            <a:ext cx="1415143" cy="9071"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="121" name="文本框 209"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1124858" y="19766642"/>
+            <a:ext cx="1034142" cy="199572"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="3175">
+            <a:prstDash val="dash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+              <a:t>读请求</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+              <a:t>FIFO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+              <a:t>队列</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="122" name="直线箭头连接符 121"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="1133929" y="20265571"/>
+            <a:ext cx="1415143" cy="9071"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="123" name="文本框 209"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1133928" y="20038786"/>
+            <a:ext cx="1061357" cy="217714"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="3175">
+            <a:prstDash val="dash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+              <a:t>写请求</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+              <a:t>FIFO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+              <a:t>队列</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="124" name="直线箭头连接符 123"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="1132114" y="20544971"/>
+            <a:ext cx="1415143" cy="9071"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="125" name="文本框 209"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1133929" y="20320001"/>
+            <a:ext cx="1061357" cy="217714"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="3175">
+            <a:prstDash val="dash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+              <a:t>排队队列</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="126" name="直线箭头连接符 125"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="2957286" y="20256499"/>
+            <a:ext cx="1415143" cy="9071"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="127" name="文本框 209"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2957286" y="20038786"/>
+            <a:ext cx="1034142" cy="199572"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="3175">
+            <a:prstDash val="dash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+              <a:t>派发队列</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="磁盘 15"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4463143" y="19929928"/>
+            <a:ext cx="498928" cy="612648"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMagneticDisk">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>磁盘</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="129" name="形状 298"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2512790" y="19984359"/>
+            <a:ext cx="444499" cy="272144"/>
+          </a:xfrm>
+          <a:prstGeom prst="curvedConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="3175">
+            <a:prstDash val="dash"/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="132" name="形状 298"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="2540000" y="20256500"/>
+            <a:ext cx="371929" cy="9071"/>
+          </a:xfrm>
+          <a:prstGeom prst="curvedConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="3175">
+            <a:prstDash val="dash"/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="135" name="形状 298"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="2530929" y="20256500"/>
+            <a:ext cx="353785" cy="281215"/>
+          </a:xfrm>
+          <a:prstGeom prst="curvedConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="3175">
+            <a:prstDash val="dash"/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6926,115 +8259,195 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D121"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="G128" sqref="G128"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="2.75" style="1"/>
+    <col min="1" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="2:4">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D35" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D36" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="2:3">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B83" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="2:3">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="2:3">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B111" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="2:3">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C112" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="2:3">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C113" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="2:3">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B121" s="2" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D122" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F123" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F124" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F125" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F126" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D127" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F128" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F136" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="137" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F137" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="138" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F138" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="139" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D139" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="140" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F140" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="141" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D141" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F142" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="143" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D143" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="144" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F144" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
